--- a/spec/fixtures/files/届出受理医療機関名簿（薬局）テスト.xlsx
+++ b/spec/fixtures/files/届出受理医療機関名簿（薬局）テスト.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
-    <t>[テスト用 ]令和５年２月２８日作成 全医療機関出力</t>
+    <t>[令和５年１月１日 現在 ]令和５年１月４日作成 全医療機関出力（テスト用）</t>
   </si>
   <si>
     <t>項番</t>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -227,13 +227,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -247,6 +334,33 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1359,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1689,6 +1803,84 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/spec/fixtures/files/届出受理医療機関名簿（薬局）テスト.xlsx
+++ b/spec/fixtures/files/届出受理医療機関名簿（薬局）テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>[令和５年１月１日 現在 ]令和５年１月４日作成 全医療機関出力（テスト用）</t>
   </si>
@@ -100,9 +100,6 @@
     <t>薬局</t>
   </si>
   <si>
-    <t>新薬74</t>
-  </si>
-  <si>
     <t>薬局名A</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>新薬92</t>
-  </si>
-  <si>
     <t>薬局名B</t>
   </si>
   <si>
@@ -164,6 +158,36 @@
   </si>
   <si>
     <t>平成 6年10月12日</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>病院名A</t>
+  </si>
+  <si>
+    <t>新宿区西新宿２－８－２</t>
+  </si>
+  <si>
+    <t>012-345-6781</t>
+  </si>
+  <si>
+    <t>精神　　202／精神　　48／精神　　50</t>
+  </si>
+  <si>
+    <t>精神病棟入院基本料</t>
+  </si>
+  <si>
+    <t>精神入院</t>
+  </si>
+  <si>
+    <t>第171号</t>
+  </si>
+  <si>
+    <t>令和 2年 9月 1日</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1658,34 +1682,32 @@
         <v>1000001</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" t="s" s="3">
+      <c r="G5" s="3"/>
+      <c r="H5" t="s" s="3">
         <v>29</v>
-      </c>
-      <c r="H5" t="s" s="3">
-        <v>30</v>
       </c>
       <c r="I5" s="4">
         <v>1600014</v>
       </c>
       <c r="J5" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="K5" t="s" s="3">
-        <v>32</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="O5" t="s" s="3">
+      <c r="P5" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="P5" t="s" s="3">
+      <c r="Q5" t="s" s="3">
         <v>35</v>
-      </c>
-      <c r="Q5" t="s" s="3">
-        <v>36</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1697,7 +1719,7 @@
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="3">
         <v>26</v>
@@ -1712,34 +1734,32 @@
         <v>1000001</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" t="s" s="3">
+      <c r="G6" s="3"/>
+      <c r="H6" t="s" s="3">
         <v>29</v>
-      </c>
-      <c r="H6" t="s" s="3">
-        <v>30</v>
       </c>
       <c r="I6" s="4">
         <v>1600014</v>
       </c>
       <c r="J6" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="K6" t="s" s="3">
-        <v>32</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="O6" t="s" s="3">
+      <c r="P6" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="P6" t="s" s="3">
+      <c r="Q6" t="s" s="3">
         <v>40</v>
-      </c>
-      <c r="Q6" t="s" s="3">
-        <v>41</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1751,7 +1771,7 @@
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="3">
         <v>26</v>
@@ -1766,34 +1786,32 @@
         <v>1000002</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" t="s" s="3">
-        <v>43</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4">
         <v>1638001</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="O7" t="s" s="3">
+      <c r="Q7" t="s" s="3">
         <v>48</v>
-      </c>
-      <c r="P7" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s" s="3">
-        <v>50</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1804,82 +1822,136 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
+      <c r="A8" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1000003</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1638002</v>
+      </c>
+      <c r="J8" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="10"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.9" bottom="1.9" header="0.5" footer="0.5"/>
